--- a/datamining/final_data/sum1957_nltk.xlsx
+++ b/datamining/final_data/sum1957_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH2"/>
+  <dimension ref="A1:AT2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,270 +462,200 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>have</t>
+          <t>meant</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>school</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>meant</t>
+          <t>page</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>most</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>read</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>want</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>which</t>
+          <t>areas</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>page</t>
+          <t>education</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>funds</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>needed</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>plea</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>psychlogogy</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>research</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>beginning</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>areas</t>
+          <t>bellwood</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>illinois</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>funds</t>
+          <t>pilot</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>needed</t>
+          <t>program</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>plea</t>
+          <t>pendulum</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>psychlogogy</t>
+          <t>swings</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>encouraging</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>musically</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>beginning</t>
+          <t>case</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>bellwood</t>
+          <t>history</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>illinois</t>
+          <t>child</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>pilot</t>
+          <t>france</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>children</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>pendulum</t>
+          <t>teach</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>swings</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>encouraging</t>
+          <t>message</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>musically</t>
+          <t>president</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>aaas</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>annual</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>city</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>held</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>jointly</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>france</t>
+          <t>nagc</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>new</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>how</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>teach</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>'s</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>message</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>president</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>aaas</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>annual</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>held</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>jointly</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>meeting</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>nagc</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>york</t>
         </is>
@@ -739,7 +669,7 @@
         <v>1957</v>
       </c>
       <c r="C2" t="n">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="D2" t="n">
         <v>0.7</v>
@@ -748,168 +678,126 @@
         <v>0.7</v>
       </c>
       <c r="F2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AL2" t="n">
         <v>0.33</v>
       </c>
-      <c r="G2" t="n">
+      <c r="AM2" t="n">
         <v>0.33</v>
       </c>
-      <c r="H2" t="n">
+      <c r="AN2" t="n">
         <v>0.33</v>
       </c>
-      <c r="I2" t="n">
+      <c r="AO2" t="n">
         <v>0.33</v>
       </c>
-      <c r="J2" t="n">
+      <c r="AP2" t="n">
         <v>0.33</v>
       </c>
-      <c r="K2" t="n">
+      <c r="AQ2" t="n">
         <v>0.33</v>
       </c>
-      <c r="L2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="AR2" t="n">
         <v>0.33</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="AS2" t="n">
         <v>0.33</v>
       </c>
-      <c r="U2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>1.02</v>
-      </c>
       <c r="AT2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BH2" t="n">
         <v>0.33</v>
       </c>
     </row>
